--- a/biology/Mycologie/Phialomyces_humicoloides/Phialomyces_humicoloides.xlsx
+++ b/biology/Mycologie/Phialomyces_humicoloides/Phialomyces_humicoloides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phialomyces humicoloides est une espèce de champignons Ascomycètes de la famille des Aspergillaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce peut produire des conidiophores terverticillés[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce peut produire des conidiophores terverticillés.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Phialomyces humicoloides (Bills &amp; Heredia) Houbraken, Frisvad &amp; Samson, 2020[2].
-L'espèce a été initialement classée dans le genre Merimbla sous le basionyme Merimbla humicoloides Bills &amp; Heredia, 2001[2]. Elle a été reclassée dans le genre Phialomyces avec deux autres espèces à la suite d'une analyse phylogénétique regroupant dans ce genre, les espèces Penicillium arenicola, Merimbla humicoloides et Phialomyces macrosporus[1].
-Phialomyces humicoloides a pour synonymes[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Phialomyces humicoloides (Bills &amp; Heredia) Houbraken, Frisvad &amp; Samson, 2020.
+L'espèce a été initialement classée dans le genre Merimbla sous le basionyme Merimbla humicoloides Bills &amp; Heredia, 2001. Elle a été reclassée dans le genre Phialomyces avec deux autres espèces à la suite d'une analyse phylogénétique regroupant dans ce genre, les espèces Penicillium arenicola, Merimbla humicoloides et Phialomyces macrosporus.
+Phialomyces humicoloides a pour synonymes :
 Merimbla humicoloides Bills &amp; Heredia, 2001
 Penicillium humicoloides (Bills &amp; Heredia) S.W. Peterson, Jurjevic, Bills, Stchigel, Guarro &amp; F.E. Vega, 2010</t>
         </is>
